--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N2">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O2">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P2">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q2">
-        <v>2184.805138816992</v>
+        <v>2554.958978793015</v>
       </c>
       <c r="R2">
-        <v>19663.24624935292</v>
+        <v>22994.63080913714</v>
       </c>
       <c r="S2">
-        <v>0.1454115498565269</v>
+        <v>0.1239740835065308</v>
       </c>
       <c r="T2">
-        <v>0.1454115498565269</v>
+        <v>0.1239740835065308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>43.200472</v>
       </c>
       <c r="O3">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P3">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q3">
-        <v>2160.533807174425</v>
+        <v>2446.812194196702</v>
       </c>
       <c r="R3">
-        <v>19444.80426456982</v>
+        <v>22021.30974777032</v>
       </c>
       <c r="S3">
-        <v>0.1437961508955292</v>
+        <v>0.1187264851631555</v>
       </c>
       <c r="T3">
-        <v>0.1437961508955292</v>
+        <v>0.1187264851631555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N4">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O4">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P4">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q4">
-        <v>1460.680037640998</v>
+        <v>3766.777394469489</v>
       </c>
       <c r="R4">
-        <v>13146.12033876898</v>
+        <v>33900.9965502254</v>
       </c>
       <c r="S4">
-        <v>0.09721679263024613</v>
+        <v>0.1827750578888275</v>
       </c>
       <c r="T4">
-        <v>0.0972167926302461</v>
+        <v>0.1827750578888275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H5">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I5">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J5">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N5">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O5">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P5">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q5">
-        <v>433.1136292053649</v>
+        <v>384.2073931989573</v>
       </c>
       <c r="R5">
-        <v>3898.022662848284</v>
+        <v>3457.866538790616</v>
       </c>
       <c r="S5">
-        <v>0.02882624311330525</v>
+        <v>0.01864286661493709</v>
       </c>
       <c r="T5">
-        <v>0.02882624311330524</v>
+        <v>0.01864286661493709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N6">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O6">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P6">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q6">
-        <v>995.777299044504</v>
+        <v>1028.238532149252</v>
       </c>
       <c r="R6">
-        <v>8961.995691400536</v>
+        <v>9254.146789343267</v>
       </c>
       <c r="S6">
-        <v>0.06627479851334075</v>
+        <v>0.04989314141925063</v>
       </c>
       <c r="T6">
-        <v>0.06627479851334073</v>
+        <v>0.04989314141925062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>43.200472</v>
       </c>
       <c r="O7">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P7">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q7">
         <v>984.7150580062321</v>
@@ -883,10 +883,10 @@
         <v>8862.435522056088</v>
       </c>
       <c r="S7">
-        <v>0.06553854172518041</v>
+        <v>0.0477812551374403</v>
       </c>
       <c r="T7">
-        <v>0.06553854172518039</v>
+        <v>0.0477812551374403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N8">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O8">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P8">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q8">
-        <v>665.739931130862</v>
+        <v>1515.932620120578</v>
       </c>
       <c r="R8">
-        <v>5991.659380177758</v>
+        <v>13643.3935810852</v>
       </c>
       <c r="S8">
-        <v>0.04430888296039705</v>
+        <v>0.07355748518744727</v>
       </c>
       <c r="T8">
-        <v>0.04430888296039704</v>
+        <v>0.07355748518744727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N9">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O9">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P9">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q9">
-        <v>197.401915716387</v>
+        <v>154.623557287176</v>
       </c>
       <c r="R9">
-        <v>1776.617241447483</v>
+        <v>1391.612015584584</v>
       </c>
       <c r="S9">
-        <v>0.01313825109570641</v>
+        <v>0.007502787309819339</v>
       </c>
       <c r="T9">
-        <v>0.0131382510957064</v>
+        <v>0.007502787309819337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N10">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O10">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P10">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q10">
-        <v>555.65317490832</v>
+        <v>801.0709953598425</v>
       </c>
       <c r="R10">
-        <v>5000.87857417488</v>
+        <v>7209.638958238584</v>
       </c>
       <c r="S10">
-        <v>0.0369819659934838</v>
+        <v>0.03887030801579318</v>
       </c>
       <c r="T10">
-        <v>0.03698196599348379</v>
+        <v>0.03887030801579318</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H11">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>43.200472</v>
       </c>
       <c r="O11">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P11">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q11">
-        <v>549.4803395158934</v>
+        <v>767.1631114757492</v>
       </c>
       <c r="R11">
-        <v>4945.323055643041</v>
+        <v>6904.468003281744</v>
       </c>
       <c r="S11">
-        <v>0.03657112772444347</v>
+        <v>0.03722499830120739</v>
       </c>
       <c r="T11">
-        <v>0.03657112772444347</v>
+        <v>0.03722499830120739</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H12">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N12">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O12">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P12">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q12">
-        <v>371.4891941712934</v>
+        <v>1181.019398641031</v>
       </c>
       <c r="R12">
-        <v>3343.40274754164</v>
+        <v>10629.17458776927</v>
       </c>
       <c r="S12">
-        <v>0.02472477683234013</v>
+        <v>0.05730651598137361</v>
       </c>
       <c r="T12">
-        <v>0.02472477683234013</v>
+        <v>0.05730651598137362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H13">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N13">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O13">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P13">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q13">
-        <v>110.1521407507934</v>
+        <v>120.4627555468213</v>
       </c>
       <c r="R13">
-        <v>991.3692667571402</v>
+        <v>1084.164799921392</v>
       </c>
       <c r="S13">
-        <v>0.007331268689371589</v>
+        <v>0.005845205281003575</v>
       </c>
       <c r="T13">
-        <v>0.007331268689371586</v>
+        <v>0.005845205281003575</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H14">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I14">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J14">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N14">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O14">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P14">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q14">
-        <v>1525.17622060836</v>
+        <v>1368.608300372935</v>
       </c>
       <c r="R14">
-        <v>13726.58598547524</v>
+        <v>12317.47470335642</v>
       </c>
       <c r="S14">
-        <v>0.1015093905184919</v>
+        <v>0.06640887823503139</v>
       </c>
       <c r="T14">
-        <v>0.1015093905184918</v>
+        <v>0.06640887823503139</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H15">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I15">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J15">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>43.200472</v>
       </c>
       <c r="O15">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P15">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q15">
-        <v>1508.23280665988</v>
+        <v>1310.677590609806</v>
       </c>
       <c r="R15">
-        <v>13574.09525993892</v>
+        <v>11796.09831548826</v>
       </c>
       <c r="S15">
-        <v>0.1003817073039407</v>
+        <v>0.06359791073638311</v>
       </c>
       <c r="T15">
-        <v>0.1003817073039406</v>
+        <v>0.06359791073638311</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H16">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I16">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J16">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N16">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O16">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P16">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q16">
-        <v>1019.67650100533</v>
+        <v>2017.739952194247</v>
       </c>
       <c r="R16">
-        <v>9177.088509047971</v>
+        <v>18159.65956974822</v>
       </c>
       <c r="S16">
-        <v>0.06786543006931539</v>
+        <v>0.09790664484404558</v>
       </c>
       <c r="T16">
-        <v>0.06786543006931538</v>
+        <v>0.09790664484404557</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H17">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I17">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J17">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N17">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O17">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P17">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q17">
-        <v>302.3494390182051</v>
+        <v>205.8073854654008</v>
       </c>
       <c r="R17">
-        <v>2721.144951163846</v>
+        <v>1852.266469188608</v>
       </c>
       <c r="S17">
-        <v>0.02012312207838109</v>
+        <v>0.00998637637775374</v>
       </c>
       <c r="T17">
-        <v>0.02012312207838108</v>
+        <v>0.00998637637775374</v>
       </c>
     </row>
   </sheetData>
